--- a/bots/crawl_ch/output/clothes_2022-08-31.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-31.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:38</t>
+          <t>2022-08-31 21:01:28</t>
         </is>
       </c>
     </row>
